--- a/铝/eta/氧化铝期货价格拟合残差_总库存_月度数据.xlsx
+++ b/铝/eta/氧化铝期货价格拟合残差_总库存_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>165.1</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.3</v>
+        <v>178.6</v>
       </c>
       <c r="C3" t="n">
-        <v>141.5</v>
+        <v>161.9</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +510,7 @@
         <v>64.8</v>
       </c>
       <c r="C6" t="n">
-        <v>64.40000000000001</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="7">
